--- a/Prelim_Data/Columbia_Plateau/Columbia_Plateau_30_90.xlsx
+++ b/Prelim_Data/Columbia_Plateau/Columbia_Plateau_30_90.xlsx
@@ -1278,7 +1278,7 @@
         <v>6.85035950639399</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01372678968660901</v>
+        <v>0.013726789686609</v>
       </c>
       <c r="P7" t="n">
         <v>0.9666666666666667</v>
@@ -2488,7 +2488,7 @@
         <v>13.58809523809524</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01151727751821056</v>
+        <v>0.01151727751821055</v>
       </c>
       <c r="P17" t="n">
         <v>0.9333333333333333</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="AK17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2609,7 +2609,7 @@
         <v>9.652777777777779</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01137338214971952</v>
+        <v>0.01137338214971951</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AK20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2972,7 +2972,7 @@
         <v>8.826074787281684</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06407324002260126</v>
+        <v>0.0640732400226012</v>
       </c>
       <c r="P21" t="n">
         <v>0.9666666666666667</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="AK21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3093,7 +3093,7 @@
         <v>8.196121933621933</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07837119185094329</v>
+        <v>0.0783711918509432</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         <v>9.986904761904762</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07697079838339545</v>
+        <v>0.07697079838339536</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="AK23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3335,7 +3335,7 @@
         <v>5.934906951286261</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008191891887501261</v>
+        <v>0.008191891887501267</v>
       </c>
       <c r="P24" t="n">
         <v>0.9666666666666667</v>
@@ -3940,7 +3940,7 @@
         <v>15.39259259259259</v>
       </c>
       <c r="O29" t="n">
-        <v>0.00999916375576225</v>
+        <v>0.009999163755762241</v>
       </c>
       <c r="P29" t="n">
         <v>0.8</v>
@@ -4061,7 +4061,7 @@
         <v>26.69252873563218</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01719173062571976</v>
+        <v>0.01719173062571977</v>
       </c>
       <c r="P30" t="n">
         <v>0.9666666666666667</v>
@@ -5271,7 +5271,7 @@
         <v>19.38456790123457</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09338542614434434</v>
+        <v>0.09338542614434432</v>
       </c>
       <c r="P40" t="n">
         <v>0.9</v>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="AK42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -7207,7 +7207,7 @@
         <v>24.22816091954023</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2937784768966494</v>
+        <v>0.2937784768966491</v>
       </c>
       <c r="P56" t="n">
         <v>0.9666666666666667</v>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="AK58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7570,7 +7570,7 @@
         <v>19.52611111111111</v>
       </c>
       <c r="O59" t="n">
-        <v>0.135116564202051</v>
+        <v>0.1351165642020508</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -7812,7 +7812,7 @@
         <v>20.17222222222222</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1628505517829316</v>
+        <v>0.1628505517829314</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="AK62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -8054,7 +8054,7 @@
         <v>13.04585537918871</v>
       </c>
       <c r="O63" t="n">
-        <v>0.06449326967786717</v>
+        <v>0.06449326967786709</v>
       </c>
       <c r="P63" t="n">
         <v>0.9</v>
@@ -8293,16 +8293,16 @@
         <v>36.72413793103448</v>
       </c>
       <c r="N65" t="n">
-        <v>11.57931034482759</v>
+        <v>12.5448275862069</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0188611008308922</v>
+        <v>0.01993759407123781</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.413793103448276</v>
+        <v>3.379310344827586</v>
       </c>
       <c r="R65" t="n">
         <v>234.1724137931035</v>
@@ -9264,7 +9264,7 @@
         <v>25.68179894179895</v>
       </c>
       <c r="O73" t="n">
-        <v>0.007274959831971681</v>
+        <v>0.007274959831971676</v>
       </c>
       <c r="P73" t="n">
         <v>0.5</v>
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="AK78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -9990,7 +9990,7 @@
         <v>8.907112332112332</v>
       </c>
       <c r="O79" t="n">
-        <v>0.067934903287938</v>
+        <v>0.06793490328793789</v>
       </c>
       <c r="P79" t="n">
         <v>0.8666666666666667</v>
@@ -10474,7 +10474,7 @@
         <v>9.450301587301587</v>
       </c>
       <c r="O83" t="n">
-        <v>0.07042655210741548</v>
+        <v>0.07042655210741544</v>
       </c>
       <c r="P83" t="n">
         <v>0.8333333333333334</v>
@@ -10595,7 +10595,7 @@
         <v>12.84880952380952</v>
       </c>
       <c r="O84" t="n">
-        <v>0.08406351067368577</v>
+        <v>0.08406351067368563</v>
       </c>
       <c r="P84" t="n">
         <v>0.9333333333333333</v>
@@ -10837,7 +10837,7 @@
         <v>22.18271604938271</v>
       </c>
       <c r="O86" t="n">
-        <v>0.05184943314415589</v>
+        <v>0.0518494331441559</v>
       </c>
       <c r="P86" t="n">
         <v>0.6666666666666666</v>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="AK88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="AK91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -11805,7 +11805,7 @@
         <v>15.50333333333333</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01592755503527513</v>
+        <v>0.01592755503527511</v>
       </c>
       <c r="P94" t="n">
         <v>0.8333333333333334</v>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="AK96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="AK99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -13499,7 +13499,7 @@
         <v>33.6287037037037</v>
       </c>
       <c r="O108" t="n">
-        <v>1.074511161406135</v>
+        <v>1.074511161406133</v>
       </c>
       <c r="P108" t="n">
         <v>0.6</v>
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="AK119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -15556,7 +15556,7 @@
         <v>25.11274509803921</v>
       </c>
       <c r="O125" t="n">
-        <v>0.2620600464844051</v>
+        <v>0.2620600464844049</v>
       </c>
       <c r="P125" t="n">
         <v>0.9444444444444444</v>
@@ -15749,7 +15749,7 @@
         </is>
       </c>
       <c r="AK126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -15795,10 +15795,10 @@
         <v>41.4</v>
       </c>
       <c r="N127" t="n">
-        <v>26.17777777777778</v>
+        <v>26.17777777777777</v>
       </c>
       <c r="O127" t="n">
-        <v>0.004312671957069733</v>
+        <v>0.004312671957069734</v>
       </c>
       <c r="P127" t="n">
         <v>0.5</v>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="AK128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="AK132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="AK133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="AK135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -16959,7 +16959,7 @@
         </is>
       </c>
       <c r="AK136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -27631,25 +27631,25 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07363827012030266</v>
+        <v>0.1280779938814067</v>
       </c>
       <c r="N4" t="n">
-        <v>1.788854381999832</v>
+        <v>1.521725027336913</v>
       </c>
       <c r="O4" t="n">
-        <v>0.232183908045977</v>
+        <v>0.2019704433497537</v>
       </c>
       <c r="P4" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="n">
-        <v>3125</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62037037037037</v>
+        <v>3.833333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -29061,25 +29061,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8100752097826929</v>
+        <v>0.8923205967302188</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2403290066601241</v>
+        <v>0.1353684133387214</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03218390804597701</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="P26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2674</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>14</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2926</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>12.875</v>
       </c>
     </row>
     <row r="27">
@@ -29249,32 +29249,32 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>no trend</t>
+          <t>increasing</t>
         </is>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05497218602574261</v>
+        <v>0.04803815873298189</v>
       </c>
       <c r="N29" t="n">
-        <v>1.919095996703548</v>
+        <v>1.977030712267485</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2482758620689655</v>
+        <v>0.2610837438423645</v>
       </c>
       <c r="P29" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q29" t="n">
-        <v>3108.666666666667</v>
+        <v>2820.666666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.470076726342711</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.375</v>
+        <v>-1.581074168797954</v>
       </c>
     </row>
     <row r="30">
@@ -29971,25 +29971,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.204848971310736</v>
+        <v>0.6765909906464433</v>
       </c>
       <c r="N40" t="n">
-        <v>1.267857142857143</v>
+        <v>0.4171195161282941</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1655172413793103</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="P40" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="Q40" t="n">
-        <v>3136</v>
+        <v>2299</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3066666666666666</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="S40" t="n">
-        <v>5.928333333333334</v>
+        <v>9.3125</v>
       </c>
     </row>
     <row r="41">
@@ -30166,25 +30166,25 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.005840565461833647</v>
+        <v>0.01414805675092889</v>
       </c>
       <c r="N43" t="n">
-        <v>2.756600537537157</v>
+        <v>2.453482133447592</v>
       </c>
       <c r="O43" t="n">
-        <v>0.3563218390804598</v>
+        <v>0.3306878306878307</v>
       </c>
       <c r="P43" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q43" t="n">
-        <v>3121</v>
+        <v>2554.333333333333</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="S43" t="n">
-        <v>0.166666666666667</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="44">
@@ -30354,32 +30354,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002130654243609698</v>
+        <v>0.9340231183672678</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.071388920832146</v>
+        <v>-0.08278421786538928</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.3655172413793104</v>
+        <v>-0.02205882352941177</v>
       </c>
       <c r="P46" t="n">
-        <v>-159</v>
+        <v>-3</v>
       </c>
       <c r="Q46" t="n">
-        <v>2646.333333333333</v>
+        <v>583.6666666666666</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>6.525</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="47">
@@ -31567,25 +31567,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259684382732972</v>
+        <v>0.2441369378490839</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.127137423701825</v>
+        <v>-1.164708671158552</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1502463054187192</v>
+        <v>-0.1551724137931035</v>
       </c>
       <c r="G65" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="H65" t="n">
         <v>2833.666666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1906318082788671</v>
+        <v>-0.2012138188608777</v>
       </c>
       <c r="J65" t="n">
-        <v>12.33551198257081</v>
+        <v>12.48366013071895</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -31596,25 +31596,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1581519120696808</v>
+        <v>0.1478846168671544</v>
       </c>
       <c r="N65" t="n">
-        <v>-1.41131446199573</v>
+        <v>-1.447043942046255</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1839080459770115</v>
+        <v>-0.1885057471264368</v>
       </c>
       <c r="P65" t="n">
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="Q65" t="n">
         <v>3133.333333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.2274509803921569</v>
+        <v>-0.2333333333333334</v>
       </c>
       <c r="S65" t="n">
-        <v>12.96470588235294</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="66">
@@ -32044,32 +32044,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04391393891669715</v>
+        <v>0.3068190873296919</v>
       </c>
       <c r="N72" t="n">
-        <v>2.01491134645569</v>
+        <v>1.021919320446587</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2505747126436781</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="P72" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Q72" t="n">
-        <v>2873</v>
+        <v>1241</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3125000000000009</v>
+        <v>1.787500000000001</v>
       </c>
     </row>
     <row r="73">
@@ -35294,32 +35294,32 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.00102915326555042</v>
+        <v>0.2669931288036751</v>
       </c>
       <c r="N122" t="n">
-        <v>3.282433308806013</v>
+        <v>1.11001368647762</v>
       </c>
       <c r="O122" t="n">
-        <v>0.4206896551724138</v>
+        <v>0.1699604743083004</v>
       </c>
       <c r="P122" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="Q122" t="n">
-        <v>3074.333333333333</v>
+        <v>1431.666666666667</v>
       </c>
       <c r="R122" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="S122" t="n">
-        <v>-0.4722222222222214</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="123">
@@ -35626,25 +35626,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0817564493942744</v>
+        <v>0.2837568017823187</v>
       </c>
       <c r="N127" t="n">
-        <v>1.740584426662913</v>
+        <v>1.071918139870564</v>
       </c>
       <c r="O127" t="n">
-        <v>0.2114942528735632</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="P127" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="Q127" t="n">
-        <v>2733.333333333333</v>
+        <v>588.3333333333334</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="S127" t="n">
-        <v>2.5</v>
+        <v>12.80769230769231</v>
       </c>
     </row>
     <row r="128">
@@ -37042,19 +37042,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5117820564612561</v>
+        <v>0.744424299369506</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6560653830082792</v>
+        <v>0.3260000736978335</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08505747126436781</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
-        <v>3011</v>
+        <v>2719.333333333333</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -38472,19 +38472,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8946320602977824</v>
+        <v>0.796501869623873</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1324453325330311</v>
+        <v>-0.2578769564326593</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.01839080459770115</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="P26" t="n">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="Q26" t="n">
-        <v>2793.333333333333</v>
+        <v>2541.333333333333</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -38667,19 +38667,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3927767584704265</v>
+        <v>0.3489299770046341</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.8545925408311087</v>
+        <v>-0.9366668039294629</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.1103448275862069</v>
+        <v>-0.1231527093596059</v>
       </c>
       <c r="P29" t="n">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="Q29" t="n">
-        <v>3024.666666666667</v>
+        <v>2736.666666666667</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -39382,19 +39382,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7690835501039877</v>
+        <v>0.4749360081817646</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2935738634261379</v>
+        <v>-0.7144709581221618</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03908045977011494</v>
+        <v>-0.09686609686609686</v>
       </c>
       <c r="P40" t="n">
-        <v>17</v>
+        <v>-34</v>
       </c>
       <c r="Q40" t="n">
-        <v>2970.333333333333</v>
+        <v>2133.333333333333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -39577,25 +39577,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.346207442805466</v>
+        <v>0.6658494204997139</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9419710872550554</v>
+        <v>0.4318513981799204</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1195402298850575</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P43" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="n">
-        <v>2931.333333333333</v>
+        <v>2364.666666666667</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -39765,32 +39765,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8885976662382817</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.1400788814320553</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.02941176470588235</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>458.6666666666667</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.00154275679894611</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.166518222280737</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.367816091954023</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-160</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2521.333333333333</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -40978,19 +40978,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09780943348482873</v>
+        <v>0.07954730198972015</v>
       </c>
       <c r="E65" t="n">
-        <v>1.65556751413601</v>
+        <v>1.753318789833714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.20935960591133</v>
+        <v>0.2216748768472906</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H65" t="n">
-        <v>2574.333333333333</v>
+        <v>2576.666666666667</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -41007,19 +41007,19 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2253336164836428</v>
+        <v>0.1918233548641619</v>
       </c>
       <c r="N65" t="n">
-        <v>1.212467132900784</v>
+        <v>1.305204110593214</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1517241379310345</v>
+        <v>0.1632183908045977</v>
       </c>
       <c r="P65" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q65" t="n">
-        <v>2874</v>
+        <v>2876.333333333333</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -41462,25 +41462,25 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2763557874626299</v>
+        <v>0.7297905219885572</v>
       </c>
       <c r="N72" t="n">
-        <v>1.088542267947755</v>
+        <v>-0.3454041975020423</v>
       </c>
       <c r="O72" t="n">
-        <v>0.135632183908046</v>
+        <v>-0.05627705627705628</v>
       </c>
       <c r="P72" t="n">
-        <v>59</v>
+        <v>-13</v>
       </c>
       <c r="Q72" t="n">
-        <v>2839</v>
+        <v>1207</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -44712,25 +44712,25 @@
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>8.314185041524702e-05</v>
+        <v>0.04249511726808941</v>
       </c>
       <c r="N122" t="n">
-        <v>3.935158377974771</v>
+        <v>2.028638567532898</v>
       </c>
       <c r="O122" t="n">
-        <v>0.4896551724137931</v>
+        <v>0.2885375494071146</v>
       </c>
       <c r="P122" t="n">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Q122" t="n">
-        <v>2902.333333333333</v>
+        <v>1259.666666666667</v>
       </c>
       <c r="R122" t="n">
-        <v>0.08</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S122" t="n">
-        <v>-0.1599999999999999</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="123">
@@ -45037,25 +45037,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05604455586906254</v>
+        <v>0.1433090593817012</v>
       </c>
       <c r="N127" t="n">
-        <v>1.910689026307538</v>
+        <v>1.463578833494457</v>
       </c>
       <c r="O127" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2573529411764706</v>
       </c>
       <c r="P127" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="Q127" t="n">
-        <v>2684.666666666667</v>
+        <v>539.6666666666666</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S127" t="n">
-        <v>0.5</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="128">
